--- a/src/BioCorp/public/BiocorpBulkInput.xlsx
+++ b/src/BioCorp/public/BiocorpBulkInput.xlsx
@@ -5,97 +5,81 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="271" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
-  <si>
-    <t>Sequence No</t>
-  </si>
-  <si>
-    <t>Oligo Name</t>
-  </si>
-  <si>
-    <t>5' Modification</t>
-  </si>
-  <si>
-    <t>3' Modification</t>
-  </si>
-  <si>
-    <t>Oligo Sequence</t>
-  </si>
-  <si>
-    <t>Purity</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Name 1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>ATGCATGCTAGCTAGCTAGCT</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>25 nm</t>
-  </si>
-  <si>
-    <t>Name 2</t>
-  </si>
-  <si>
-    <t>Aminolink</t>
-  </si>
-  <si>
-    <t>HPLC</t>
-  </si>
-  <si>
-    <t>50 nm</t>
-  </si>
-  <si>
-    <t>Name 3</t>
-  </si>
-  <si>
-    <t>Biotin</t>
-  </si>
-  <si>
-    <t>Gel</t>
-  </si>
-  <si>
-    <t>100 nm</t>
-  </si>
-  <si>
-    <t>Name 4</t>
-  </si>
-  <si>
-    <t>Fluorescein-6Fam</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
-    <t>200 nm</t>
-  </si>
-  <si>
-    <t>Name 5</t>
-  </si>
-  <si>
-    <t>Fluorescein-Hex</t>
-  </si>
-  <si>
-    <t>500 nm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Sequence No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oligo Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5' Modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3' Modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oligo Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATGCATGCTAGCTAGCTAGCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name 5</t>
   </si>
 </sst>
 </file>
@@ -103,9 +87,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -133,6 +117,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,12 +166,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,19 +200,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="16.9438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.219387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.24489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,28 +237,31 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,22 +269,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>15</v>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,22 +292,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>19</v>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,22 +315,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,36 +338,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>26</v>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:D6" type="list">
-      <formula1>$D$2:$D9</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G6" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G6" type="list">
       <formula1>$G$2:$G$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F6" type="list">
       <formula1>$F$2:$F$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G5" type="list">
+      <formula1>"25 nm,50 nm,100 nm,200 nm,500 nm,1 um,10 um"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:D6" type="list">
+      <formula1>"None,Aminolink,Biotin,Fluorescein-6Fam,Fluorescein-Hex,Fluorescein-Tet,Phosphorylated,Tamra"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/src/BioCorp/public/BiocorpBulkInput.xlsx
+++ b/src/BioCorp/public/BiocorpBulkInput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t xml:space="preserve">Sequence No</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">3' Modification</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal Modification</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oligo Sequence</t>
   </si>
   <si>
@@ -52,7 +55,7 @@
     <t xml:space="preserve">None</t>
   </si>
   <si>
-    <t xml:space="preserve">ATGCATGCTAGCTAGCTAGCT</t>
+    <t xml:space="preserve">AAAGTTTCCC</t>
   </si>
   <si>
     <t xml:space="preserve">Standard</t>
@@ -64,19 +67,10 @@
     <t xml:space="preserve">Name 2</t>
   </si>
   <si>
-    <t xml:space="preserve">HPLC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Gel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed</t>
   </si>
   <si>
     <t xml:space="preserve">Name 5</t>
@@ -86,10 +80,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -118,11 +113,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +169,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,19 +190,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.219387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.24489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="82.8826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,28 +233,34 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,22 +268,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -295,19 +297,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,22 +320,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,40 +346,55 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G6" type="list">
-      <formula1>$G$2:$G$8</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F6" type="list">
-      <formula1>$F$2:$F$5</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G5" type="list">
+  <dataValidations count="7">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:D6" type="list">
+      <formula1>"None,Aminolink,Biotin,Fluorescein-6Fam,Fluorescein-Hex,Fluorescein-Tet,Phosphorylated,Tamra"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G6" type="list">
+      <formula1>"Standard,HPLC,Gel,Mixed"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:H6" type="list">
       <formula1>"25 nm,50 nm,100 nm,200 nm,500 nm,1 um,10 um"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:D6" type="list">
-      <formula1>"None,Aminolink,Biotin,Fluorescein-6Fam,Fluorescein-Hex,Fluorescein-Tet,Phosphorylated,Tamra"</formula1>
+    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3:F6" type="textLength">
+      <formula1>300</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="If Internal Modification is set to TRUE, describe the modifications in the Comments." errorTitle="Internal Modification" operator="notEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I2:I6" type="textLength">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" prompt="Please describe any internal modifications in the Comments for this Oligo." promptTitle="Internal Modification" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:E6" type="list">
+      <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="lessThanOrEqual" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="F2" type="textLength">
+      <formula1>300</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
